--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_280.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_280.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
+          <t>[['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1099450274862569</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(19.86, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3483870967741935</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1534526854219949</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.738798, 41.70941), (39.724104, 43.706326)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(145.04, 147.86), (142.14, 146.8)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:45.480000', '0:00:48')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.421247', '0:00:03.953211')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09259259259259259</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.2, 41.84)]</t>
+          <t>[['D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:02.088054', '0:00:06.708825')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:17.374897', '0:00:25.443832')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3028846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.98, 15.9)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.2, 18.46)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.860000', '0:00:05.140000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3513071895424837</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.08, 24.94)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'Bb', 'F']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.148231, 28.899196)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(34.755034, 40.803832)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5483870967741935</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'B', 'E']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.06, 30.08), (1.64, 23.48)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.410362, 24.856984), (12.921927, 21.908049)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:dim7', 'D:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(17.26, 20.08)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min', 'A#:min'], ['A#', 'A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.68, 31.24), (269.7, 275.78)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8), (20.74, 23.8)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A/5']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.760294, 11.732448)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(111.87, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
